--- a/biology/Botanique/Piriqueta/Piriqueta.xlsx
+++ b/biology/Botanique/Piriqueta/Piriqueta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piriqueta est un genre de plantes à fleurs de la famille des Passifloraceae (anciennement des Turneraceae), comportant environ 50 espèces, et dont l'espèce type est Piriqueta villosa Aubl. (syn. : Piriqueta cistoides subsp. cistoides). Ce sont des plantes herbacées d'origine néotropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (09 janvier 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (09 janvier 2022) :
 Piriqueta abairana Arbo
 Piriqueta araguaiana Arbo
 Piriqueta asperifolia Arbo
@@ -560,7 +574,7 @@
 Piriqueta undulata Urb.
 Piriqueta venezuelana Arbo
 Piriqueta viscosa Griseb.
-Selon GBIF       (09 janvier 2022)[2] :
+Selon GBIF       (09 janvier 2022) :
 Piriqueta abairana Arbo
 Piriqueta araguaiana Arbo
 Piriqueta asperifolia Arbo
@@ -643,7 +657,9 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « PIRIQUETA. (Tabula 117.)
@@ -653,7 +669,7 @@
 PIST. Germen ſubrotundum, trigonum. Styli quinque aut ſex. Stigmata plana, carnoſa, latiuſcula, ſtriis quinque notata. 
 PER. Capsula ovata, trigona vel tetragona, unilocularis, tri vel quadri-valvis ; valvulis concavis, lineâ longitudinali prominente bipartitis, ab apice ad baſim dehiſcentibus. 
 SEM. ſeptem vel octo ſubovata, fuſca, lineæ longitudinali ſingularum valvularum affixa. »
-— Fusée-Aublet, 1775[3].
+— Fusée-Aublet, 1775.
 </t>
         </is>
       </c>
